--- a/result/gr25_010_simulated/details.xlsx
+++ b/result/gr25_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229327917098999</v>
+        <v>0.2121376991271973</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.7207045699233</v>
+        <v>126.6717933621676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005275251050074142</v>
+        <v>0.00528233382665625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0043196592574576</v>
+        <v>0.00361370371671504</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003672978334918659</v>
+        <v>0.003382748082890474</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003400322487462557</v>
+        <v>0.003246370792617207</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00318660814505305</v>
+        <v>0.003063485040150263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003047367434104011</v>
+        <v>0.003063485040150263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00285733389226255</v>
+        <v>0.003061190610580106</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00285733389226255</v>
+        <v>0.002838050800030145</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002784433064965211</v>
+        <v>0.00277996133201459</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002710102945539051</v>
+        <v>0.002714580956402124</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002710102945539051</v>
+        <v>0.002700471993269063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002704677440216511</v>
+        <v>0.002700471993269063</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002679148069793854</v>
+        <v>0.00268194070224144</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002658867597543703</v>
+        <v>0.002619538620979761</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002617662932333468</v>
+        <v>0.002593738119387984</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002617662932333468</v>
+        <v>0.002579888395264869</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002585331645050086</v>
+        <v>0.002528398980460917</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002561267842371931</v>
+        <v>0.002519106432429755</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002556422971805088</v>
+        <v>0.002475901483295411</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002548161882454645</v>
+        <v>0.002469235738053949</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2536568641662598</v>
+        <v>0.2116734981536865</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.643549232389</v>
+        <v>131.820851839464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005102032754768256</v>
+        <v>0.005332121010410525</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004165749135529897</v>
+        <v>0.003696987142443725</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003641349754286236</v>
+        <v>0.003123465910441338</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003298637853876833</v>
+        <v>0.003123465910441338</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003158844915464565</v>
+        <v>0.003123465910441338</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003113358184420707</v>
+        <v>0.003123465910441338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002983515478965386</v>
+        <v>0.002898282955195798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002973199551098752</v>
+        <v>0.002898282955195798</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002927492793290664</v>
+        <v>0.002898282955195798</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002837957263808184</v>
+        <v>0.002898282955195798</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002837957263808184</v>
+        <v>0.002898282955195798</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002743989904306819</v>
+        <v>0.002746105463780945</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002743989904306819</v>
+        <v>0.002746105463780945</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002685811546592068</v>
+        <v>0.002699121978011494</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002612828625347213</v>
+        <v>0.002670520771063845</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002602616726432641</v>
+        <v>0.002670520771063845</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002562210925389045</v>
+        <v>0.002649091186681688</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002551738201854832</v>
+        <v>0.002640632792734297</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002510753979899993</v>
+        <v>0.002607742563873597</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002507671524997836</v>
+        <v>0.002569607248332631</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2383699417114258</v>
+        <v>0.2542331218719482</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.6666633992481</v>
+        <v>121.2549160301805</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005332121010410525</v>
+        <v>0.005076595900625629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00414147871003431</v>
+        <v>0.004253683968261391</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003796277180769329</v>
+        <v>0.00393359681751459</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003608487709245369</v>
+        <v>0.003564457652490048</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003312696823354536</v>
+        <v>0.003345836869803324</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003110704355810002</v>
+        <v>0.003057499272538612</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002981198005803229</v>
+        <v>0.00300489472005473</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002805929921148427</v>
+        <v>0.002926809483688932</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002728185052397131</v>
+        <v>0.002852985676140571</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002682957142770801</v>
+        <v>0.002710994630188901</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002664117151088555</v>
+        <v>0.002710994630188901</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002644288777092088</v>
+        <v>0.002574238505891208</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00258310243724433</v>
+        <v>0.002520746780833594</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002547191840307983</v>
+        <v>0.002508689487193101</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002500472623354933</v>
+        <v>0.002452627223673344</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00245650616770218</v>
+        <v>0.002448012654612502</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002418396500360984</v>
+        <v>0.002424903538945128</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00240527838801728</v>
+        <v>0.002393421319376575</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002385992385837572</v>
+        <v>0.002384404872589559</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002352176674449281</v>
+        <v>0.002363643587332953</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2406675815582275</v>
+        <v>0.2052321434020996</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>124.7125263585367</v>
+        <v>126.8747968662647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005259444068415319</v>
+        <v>0.005326333466154747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004166076309594717</v>
+        <v>0.004100683574910057</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003420457094846311</v>
+        <v>0.003692601476026889</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003324110947220463</v>
+        <v>0.00364151815449644</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003148918541767867</v>
+        <v>0.003431845201106533</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003027687554676001</v>
+        <v>0.003292767639728839</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003021251220984515</v>
+        <v>0.003292767639728839</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003019093449887233</v>
+        <v>0.003145769079246658</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002870688420219995</v>
+        <v>0.00305566689409799</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002805331452442724</v>
+        <v>0.002911001091240046</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002764353854807544</v>
+        <v>0.0028794657918634</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002733964196040421</v>
+        <v>0.002860307584064622</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002657895426534673</v>
+        <v>0.002814242707251737</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002606966675399344</v>
+        <v>0.002700703172838516</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002566750392076807</v>
+        <v>0.002581676515431161</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002522997029518591</v>
+        <v>0.002581676515431161</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002522997029518591</v>
+        <v>0.002533499274059582</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002484834107899108</v>
+        <v>0.002508942230674646</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002460735756464421</v>
+        <v>0.002491968678754928</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002431043398801885</v>
+        <v>0.002473192921369681</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2327253818511963</v>
+        <v>0.2187762260437012</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>125.0185616474464</v>
+        <v>129.0558737381361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005319411380848912</v>
+        <v>0.004973533463168622</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004281270698747069</v>
+        <v>0.004007834176334806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003839897913201082</v>
+        <v>0.003765545263563394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003571603190411495</v>
+        <v>0.00329902033455459</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00339934906672994</v>
+        <v>0.002996318119233419</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003203908925260316</v>
+        <v>0.002837164056632992</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002966783819292278</v>
+        <v>0.002837164056632992</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002922465513733661</v>
+        <v>0.002754386194236799</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002810312816642042</v>
+        <v>0.002617625099652148</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002777145559424536</v>
+        <v>0.002617625099652148</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002742105590132552</v>
+        <v>0.002617625099652148</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002653978816797319</v>
+        <v>0.002617625099652148</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002653978816797319</v>
+        <v>0.002617625099652148</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002632357387057751</v>
+        <v>0.002595882651043438</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002529673019975337</v>
+        <v>0.00259323266272408</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002518943839266029</v>
+        <v>0.002579049413439581</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002491375902195888</v>
+        <v>0.002551534453327475</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002476954105145142</v>
+        <v>0.002531023254919915</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002447113000860547</v>
+        <v>0.002526609723334271</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002437008998975563</v>
+        <v>0.002515709039729749</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4270246028900146</v>
+        <v>0.2400655746459961</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>123.2107278822514</v>
+        <v>128.0566292336225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005141237047590438</v>
+        <v>0.005219006066630359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004259114760821213</v>
+        <v>0.004051474292314311</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003979177364125591</v>
+        <v>0.003906398998612191</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003581546357062547</v>
+        <v>0.003188090128879357</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00330611029155574</v>
+        <v>0.003128614044360989</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00330611029155574</v>
+        <v>0.003119278016120661</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003034735005111529</v>
+        <v>0.002904662338371752</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003005532146402912</v>
+        <v>0.002904662338371752</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002986391083769158</v>
+        <v>0.002904662338371752</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002757385316981845</v>
+        <v>0.002904662338371752</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002671016901066797</v>
+        <v>0.002732313833185527</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002589218828871152</v>
+        <v>0.002732313833185527</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002589218828871152</v>
+        <v>0.002665358665284617</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00252245239164781</v>
+        <v>0.002658306804732575</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00252245239164781</v>
+        <v>0.002634189869973749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002504991851047522</v>
+        <v>0.00256335318610163</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002473502778252897</v>
+        <v>0.00256335318610163</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002429116495820768</v>
+        <v>0.002529427871117678</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002423443162310308</v>
+        <v>0.002510368390949313</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002401768574702755</v>
+        <v>0.002496230589349366</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2390120029449463</v>
+        <v>0.1998984813690186</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>130.5420794281472</v>
+        <v>123.7813224347901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005126533693284876</v>
+        <v>0.004942089665453015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004039678863466026</v>
+        <v>0.004137135732418034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00385285255883817</v>
+        <v>0.003509129963556127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003374082373587453</v>
+        <v>0.003398433446092955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003071744759154791</v>
+        <v>0.003268118359936312</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002875451671220093</v>
+        <v>0.003139955469954653</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002875451671220093</v>
+        <v>0.002907431792588261</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002875451671220093</v>
+        <v>0.002907431792588261</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002875451671220093</v>
+        <v>0.002809764747183962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002875451671220093</v>
+        <v>0.002759037451199575</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002777941333860349</v>
+        <v>0.002642192144686069</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002777941333860349</v>
+        <v>0.002585381755691459</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002702970792431434</v>
+        <v>0.002585381755691459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002675279116937546</v>
+        <v>0.002564262630548981</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002634723394001068</v>
+        <v>0.002517860241060849</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002634723394001068</v>
+        <v>0.002508724663945088</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002593226160396949</v>
+        <v>0.002495515038345404</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002568526247029373</v>
+        <v>0.002469520495740167</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002568526247029373</v>
+        <v>0.002424979380251238</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002544679910880062</v>
+        <v>0.002412891275531971</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2354788780212402</v>
+        <v>0.2187156677246094</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>128.7275067409537</v>
+        <v>123.1594028764302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005231193499992258</v>
+        <v>0.005051936418252378</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004115504842736119</v>
+        <v>0.003993786927767359</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003729372013013419</v>
+        <v>0.003485043839811612</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003507840759895565</v>
+        <v>0.003386969770129717</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003410420060305542</v>
+        <v>0.003262911120083147</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003162501470004654</v>
+        <v>0.002897553220910092</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003162501470004654</v>
+        <v>0.002823757717874526</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003047486471926118</v>
+        <v>0.002808924701578921</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003015021490412155</v>
+        <v>0.002808924701578921</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002944552927497657</v>
+        <v>0.002710307137762388</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002756526510790126</v>
+        <v>0.00265108004136262</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002756526510790126</v>
+        <v>0.002614194224425041</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002710113284011475</v>
+        <v>0.002614194224425041</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002710113284011475</v>
+        <v>0.00254398382717842</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002686404024240834</v>
+        <v>0.002533870979031098</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002639755381237458</v>
+        <v>0.002470804824265213</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002639755381237458</v>
+        <v>0.002470804824265213</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002579795632282042</v>
+        <v>0.002456415562899114</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002554855664441605</v>
+        <v>0.002402388886296047</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002509308123605334</v>
+        <v>0.002400768087259848</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235999584197998</v>
+        <v>0.222224235534668</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>125.972228208766</v>
+        <v>131.3187775684819</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004988197261844152</v>
+        <v>0.005332121010410525</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00400503807753531</v>
+        <v>0.004086079520537409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003794254449817459</v>
+        <v>0.003705523309299093</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003525866050052617</v>
+        <v>0.003461786051366342</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003456385547710984</v>
+        <v>0.003419299326158093</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003221192217180948</v>
+        <v>0.003385313938731848</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003041721686403776</v>
+        <v>0.003057548374169295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002917280760156516</v>
+        <v>0.003057548374169295</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002820292422465284</v>
+        <v>0.002881505085931732</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002812956643599577</v>
+        <v>0.002881505085931732</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002812956643599577</v>
+        <v>0.002809257586947448</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002717738643442612</v>
+        <v>0.002729107386460642</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002663592246339121</v>
+        <v>0.002726573061178912</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002663592246339121</v>
+        <v>0.002726573061178912</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002527842080981272</v>
+        <v>0.002662052494544401</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002527842080981272</v>
+        <v>0.002652874126678084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002501235388390696</v>
+        <v>0.002641424918753105</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002455677568401196</v>
+        <v>0.002586359042402178</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002455677568401196</v>
+        <v>0.002564638119029839</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002455598990424287</v>
+        <v>0.002559820225506469</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2318427562713623</v>
+        <v>0.2078926563262939</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.7986995078027</v>
+        <v>130.6791473959038</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005115955048369929</v>
+        <v>0.004959683832992694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00390407908135042</v>
+        <v>0.003888169743577927</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003496732473303049</v>
+        <v>0.003477358963056658</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003305601735126819</v>
+        <v>0.003477358963056658</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003305601735126819</v>
+        <v>0.003288669707095468</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003176137470000241</v>
+        <v>0.003014984416656826</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002958067055975018</v>
+        <v>0.002969485827017234</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002933173685493871</v>
+        <v>0.002969485827017234</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002775025253859179</v>
+        <v>0.002896639929711429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002714220122129792</v>
+        <v>0.002804100637848087</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002658723823151199</v>
+        <v>0.002792435969355036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002649448248527678</v>
+        <v>0.002757108026358998</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002541191580028708</v>
+        <v>0.002741502051850018</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002454577717149948</v>
+        <v>0.002713232308939062</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002454577717149948</v>
+        <v>0.002710031841885551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002454577717149948</v>
+        <v>0.002686023812329275</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002421431286841299</v>
+        <v>0.002640882957543881</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002421431286841299</v>
+        <v>0.002602610744273506</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002413735122161448</v>
+        <v>0.002580640908618788</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002393736832510773</v>
+        <v>0.002547351801089742</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_010_simulated/details.xlsx
+++ b/result/gr25_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2121376991271973</v>
+        <v>0.5389986038208008</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>126.6717933621676</v>
+        <v>126.6426861646778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00528233382665625</v>
+        <v>0.004364484159258046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00361370371671504</v>
+        <v>0.003685497530278848</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003382748082890474</v>
+        <v>0.003281981489578283</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003246370792617207</v>
+        <v>0.003069505575590013</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003063485040150263</v>
+        <v>0.003069505575590013</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003063485040150263</v>
+        <v>0.003069505575590013</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003061190610580106</v>
+        <v>0.003006090023300911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002838050800030145</v>
+        <v>0.002824927465330597</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00277996133201459</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002714580956402124</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002700471993269063</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002700471993269063</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00268194070224144</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002619538620979761</v>
+        <v>0.002635798222585095</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002593738119387984</v>
+        <v>0.002604703742776248</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002579888395264869</v>
+        <v>0.002604703742776248</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002528398980460917</v>
+        <v>0.002583682949108359</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002519106432429755</v>
+        <v>0.002540257066612453</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002475901483295411</v>
+        <v>0.002505728536850786</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002469235738053949</v>
+        <v>0.002468668346290015</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2116734981536865</v>
+        <v>0.449979305267334</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.820851839464</v>
+        <v>114.0170331663157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005332121010410525</v>
+        <v>0.004448212927907743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003696987142443725</v>
+        <v>0.003414919473505197</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003123465910441338</v>
+        <v>0.003188512887160494</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003123465910441338</v>
+        <v>0.003188512887160494</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003123465910441338</v>
+        <v>0.003028704169767002</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003123465910441338</v>
+        <v>0.002834342829621419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002898282955195798</v>
+        <v>0.002730174008564445</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002898282955195798</v>
+        <v>0.002686869856043151</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002898282955195798</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002898282955195798</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002898282955195798</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002746105463780945</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002746105463780945</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002699121978011494</v>
+        <v>0.002452970819439228</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002670520771063845</v>
+        <v>0.00237631774161823</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002670520771063845</v>
+        <v>0.002348547453875476</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002649091186681688</v>
+        <v>0.002315017083751369</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002640632792734297</v>
+        <v>0.002250480270419383</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002607742563873597</v>
+        <v>0.002250480270419383</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002569607248332631</v>
+        <v>0.002222554252754692</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2542331218719482</v>
+        <v>0.4610099792480469</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.2549160301805</v>
+        <v>114.1786462306791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005076595900625629</v>
+        <v>0.00431930524465792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004253683968261391</v>
+        <v>0.003686233814105452</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00393359681751459</v>
+        <v>0.003417906352002872</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003564457652490048</v>
+        <v>0.003193814751914287</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003345836869803324</v>
+        <v>0.002981673028344625</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003057499272538612</v>
+        <v>0.002926863113464181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00300489472005473</v>
+        <v>0.00262925099278854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002926809483688932</v>
+        <v>0.00262925099278854</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002852985676140571</v>
+        <v>0.00259476189406099</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002710994630188901</v>
+        <v>0.002591766419197783</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002710994630188901</v>
+        <v>0.002591766419197783</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002574238505891208</v>
+        <v>0.002491120409592935</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002520746780833594</v>
+        <v>0.002301550129094868</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002508689487193101</v>
+        <v>0.002301550129094868</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002452627223673344</v>
+        <v>0.002301550129094868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002448012654612502</v>
+        <v>0.002301550129094868</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002424903538945128</v>
+        <v>0.002265601786192823</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002393421319376575</v>
+        <v>0.002265601786192823</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002384404872589559</v>
+        <v>0.002256498845168114</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002363643587332953</v>
+        <v>0.002225704604886531</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2052321434020996</v>
+        <v>0.4689986705780029</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>126.8747968662647</v>
+        <v>111.8916679397062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005326333466154747</v>
+        <v>0.004350581652676185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004100683574910057</v>
+        <v>0.003576971710480415</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003692601476026889</v>
+        <v>0.003513894384160952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00364151815449644</v>
+        <v>0.003210117945853883</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003431845201106533</v>
+        <v>0.003078236728401711</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003292767639728839</v>
+        <v>0.002962184825010395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003292767639728839</v>
+        <v>0.002757360494654961</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003145769079246658</v>
+        <v>0.002627148751013137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00305566689409799</v>
+        <v>0.002451135001929021</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002911001091240046</v>
+        <v>0.002451135001929021</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0028794657918634</v>
+        <v>0.002451135001929021</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002860307584064622</v>
+        <v>0.002451135001929021</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002814242707251737</v>
+        <v>0.002421197347380283</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002700703172838516</v>
+        <v>0.002366126374177894</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002581676515431161</v>
+        <v>0.002336921034986967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002581676515431161</v>
+        <v>0.0022379755790026</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002533499274059582</v>
+        <v>0.002224648279243588</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002508942230674646</v>
+        <v>0.002181124131378287</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002491968678754928</v>
+        <v>0.002181124131378287</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002473192921369681</v>
+        <v>0.002181124131378287</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2187762260437012</v>
+        <v>0.5079703330993652</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>129.0558737381361</v>
+        <v>116.3791679893038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004973533463168622</v>
+        <v>0.004254990022205075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004007834176334806</v>
+        <v>0.003667130267142701</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003765545263563394</v>
+        <v>0.00317091710152404</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00329902033455459</v>
+        <v>0.002996337006444205</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002996318119233419</v>
+        <v>0.002969378274388894</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002837164056632992</v>
+        <v>0.002854746259816674</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002837164056632992</v>
+        <v>0.002835007497225079</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002754386194236799</v>
+        <v>0.002835007497225079</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002617625099652148</v>
+        <v>0.002719192874422387</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002617625099652148</v>
+        <v>0.002715002246197371</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002617625099652148</v>
+        <v>0.002641810965752478</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002617625099652148</v>
+        <v>0.002641810965752478</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002617625099652148</v>
+        <v>0.00263668435348508</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002595882651043438</v>
+        <v>0.002541752682698157</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00259323266272408</v>
+        <v>0.002395247034280091</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002579049413439581</v>
+        <v>0.002362522109695376</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002551534453327475</v>
+        <v>0.002314518946876165</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002531023254919915</v>
+        <v>0.00231125733281932</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002526609723334271</v>
+        <v>0.002303139617990885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002515709039729749</v>
+        <v>0.002268599765873369</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2400655746459961</v>
+        <v>0.607003927230835</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0566292336225</v>
+        <v>111.8859606275564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005219006066630359</v>
+        <v>0.00438295572147182</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004051474292314311</v>
+        <v>0.003344109421014846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003906398998612191</v>
+        <v>0.003273751451447468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003188090128879357</v>
+        <v>0.003195090160578947</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003128614044360989</v>
+        <v>0.00307404770036543</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003119278016120661</v>
+        <v>0.002913492033346406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002904662338371752</v>
+        <v>0.002783756172072764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002904662338371752</v>
+        <v>0.002460185038568832</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002904662338371752</v>
+        <v>0.002460185038568832</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002904662338371752</v>
+        <v>0.002460185038568832</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002732313833185527</v>
+        <v>0.002460185038568832</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002732313833185527</v>
+        <v>0.002460185038568832</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002665358665284617</v>
+        <v>0.002412689977614047</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002658306804732575</v>
+        <v>0.002368030305463471</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002634189869973749</v>
+        <v>0.002276445955006187</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00256335318610163</v>
+        <v>0.002232737977554432</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00256335318610163</v>
+        <v>0.002232737977554432</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002529427871117678</v>
+        <v>0.002217768294990465</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002510368390949313</v>
+        <v>0.00219548548218541</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002496230589349366</v>
+        <v>0.002181012877730144</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1998984813690186</v>
+        <v>0.6359982490539551</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>123.7813224347901</v>
+        <v>114.0765903044612</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004942089665453015</v>
+        <v>0.00432329529302083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004137135732418034</v>
+        <v>0.003552023658856618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003509129963556127</v>
+        <v>0.003290769825804059</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003398433446092955</v>
+        <v>0.003218745790353153</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003268118359936312</v>
+        <v>0.003081407328576971</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003139955469954653</v>
+        <v>0.002799039809469725</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002907431792588261</v>
+        <v>0.002722081274767769</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002907431792588261</v>
+        <v>0.002627808956216714</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002809764747183962</v>
+        <v>0.002599128195008595</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002759037451199575</v>
+        <v>0.002503588136091723</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002642192144686069</v>
+        <v>0.002503588136091723</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002585381755691459</v>
+        <v>0.002485952459278672</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002585381755691459</v>
+        <v>0.002448559044323967</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002564262630548981</v>
+        <v>0.002339981822858204</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002517860241060849</v>
+        <v>0.002339981822858204</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002508724663945088</v>
+        <v>0.002309790881299633</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002495515038345404</v>
+        <v>0.002297559184249305</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002469520495740167</v>
+        <v>0.002291856549304691</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002424979380251238</v>
+        <v>0.002237755450708623</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002412891275531971</v>
+        <v>0.002223715210613278</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2187156677246094</v>
+        <v>0.6570007801055908</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>123.1594028764302</v>
+        <v>119.2989798631188</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005051936418252378</v>
+        <v>0.004448212927907743</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003993786927767359</v>
+        <v>0.003584895951310413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003485043839811612</v>
+        <v>0.003210983300468407</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003386969770129717</v>
+        <v>0.003031272813248038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003262911120083147</v>
+        <v>0.002960049507930509</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002897553220910092</v>
+        <v>0.00292400691432459</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002823757717874526</v>
+        <v>0.002754679555196702</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002808924701578921</v>
+        <v>0.00275339199792444</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002808924701578921</v>
+        <v>0.00253201840521467</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002710307137762388</v>
+        <v>0.00253201840521467</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00265108004136262</v>
+        <v>0.00253201840521467</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002614194224425041</v>
+        <v>0.00253201840521467</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002614194224425041</v>
+        <v>0.00253201840521467</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00254398382717842</v>
+        <v>0.002509588556658429</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002533870979031098</v>
+        <v>0.002509588556658429</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002470804824265213</v>
+        <v>0.002459512536976322</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002470804824265213</v>
+        <v>0.002459512536976322</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002456415562899114</v>
+        <v>0.002393320314703705</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002402388886296047</v>
+        <v>0.002346985773831007</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002400768087259848</v>
+        <v>0.002325516176668982</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222224235534668</v>
+        <v>0.5919914245605469</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.3187775684819</v>
+        <v>115.0709959736505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005332121010410525</v>
+        <v>0.004264709933331066</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004086079520537409</v>
+        <v>0.003431084509297379</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003705523309299093</v>
+        <v>0.0033446797172811</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003461786051366342</v>
+        <v>0.003141187245167948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003419299326158093</v>
+        <v>0.002911726273634722</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003385313938731848</v>
+        <v>0.002582346345895457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003057548374169295</v>
+        <v>0.002582346345895457</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003057548374169295</v>
+        <v>0.002582346345895457</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002881505085931732</v>
+        <v>0.002582346345895457</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002881505085931732</v>
+        <v>0.002582346345895457</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002809257586947448</v>
+        <v>0.002345909127039388</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002729107386460642</v>
+        <v>0.002345909127039388</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002726573061178912</v>
+        <v>0.002345909127039388</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002726573061178912</v>
+        <v>0.002345909127039388</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002662052494544401</v>
+        <v>0.002345909127039388</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002652874126678084</v>
+        <v>0.002289833849279365</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002641424918753105</v>
+        <v>0.002289833849279365</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002586359042402178</v>
+        <v>0.002256956399206921</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002564638119029839</v>
+        <v>0.002256956399206921</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002559820225506469</v>
+        <v>0.002243099336718333</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2078926563262939</v>
+        <v>0.4180037975311279</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>130.6791473959038</v>
+        <v>114.3440445586621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004959683832992694</v>
+        <v>0.004279189778590753</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003888169743577927</v>
+        <v>0.003445253278320225</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003477358963056658</v>
+        <v>0.003385610598878073</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003477358963056658</v>
+        <v>0.00305647854442224</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003288669707095468</v>
+        <v>0.002694268706645441</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003014984416656826</v>
+        <v>0.002694268706645441</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002969485827017234</v>
+        <v>0.002689140058575563</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002969485827017234</v>
+        <v>0.002689140058575563</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002896639929711429</v>
+        <v>0.002679905176483641</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002804100637848087</v>
+        <v>0.002529912645824656</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002792435969355036</v>
+        <v>0.00242396822757141</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002757108026358998</v>
+        <v>0.00242396822757141</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002741502051850018</v>
+        <v>0.00242396822757141</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002713232308939062</v>
+        <v>0.002415648182219303</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002710031841885551</v>
+        <v>0.002369266043796455</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002686023812329275</v>
+        <v>0.002333234887971618</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002640882957543881</v>
+        <v>0.00228368664805378</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002602610744273506</v>
+        <v>0.002262307570470131</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002580640908618788</v>
+        <v>0.002251117901553646</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002547351801089742</v>
+        <v>0.002228928743833568</v>
       </c>
     </row>
   </sheetData>
